--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il17f-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il17f-Il17ra.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Il17f</t>
+  </si>
+  <si>
+    <t>Il17ra</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il17f</t>
-  </si>
-  <si>
-    <t>Il17ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -525,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.25124</v>
+        <v>0.05839233333333333</v>
       </c>
       <c r="H2">
-        <v>0.7537200000000001</v>
+        <v>0.175177</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.816288</v>
+        <v>0.1801153333333333</v>
       </c>
       <c r="N2">
-        <v>56.448864</v>
+        <v>0.540346</v>
       </c>
       <c r="O2">
-        <v>0.6719831983915505</v>
+        <v>0.01663333613045927</v>
       </c>
       <c r="P2">
-        <v>0.6719831983915505</v>
+        <v>0.01663333613045927</v>
       </c>
       <c r="Q2">
-        <v>4.72740419712</v>
+        <v>0.01051735458244444</v>
       </c>
       <c r="R2">
-        <v>42.54663777408</v>
+        <v>0.094656191242</v>
       </c>
       <c r="S2">
-        <v>0.6719831983915505</v>
+        <v>0.01663333613045927</v>
       </c>
       <c r="T2">
-        <v>0.6719831983915505</v>
+        <v>0.01663333613045927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,19 +587,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.25124</v>
+        <v>0.05839233333333333</v>
       </c>
       <c r="H3">
-        <v>0.7537200000000001</v>
+        <v>0.175177</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>13.224605</v>
       </c>
       <c r="O3">
-        <v>0.1574294279042514</v>
+        <v>0.407089716880577</v>
       </c>
       <c r="P3">
-        <v>0.1574294279042514</v>
+        <v>0.407089716880577</v>
       </c>
       <c r="Q3">
-        <v>1.107516586733333</v>
+        <v>0.2574051811205555</v>
       </c>
       <c r="R3">
-        <v>9.967649280600002</v>
+        <v>2.316646630085</v>
       </c>
       <c r="S3">
-        <v>0.1574294279042514</v>
+        <v>0.407089716880577</v>
       </c>
       <c r="T3">
-        <v>0.1574294279042514</v>
+        <v>0.407089716880577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,19 +649,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.25124</v>
+        <v>0.05839233333333333</v>
       </c>
       <c r="H4">
-        <v>0.7537200000000001</v>
+        <v>0.175177</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.776639</v>
+        <v>6.240258333333333</v>
       </c>
       <c r="N4">
-        <v>14.329917</v>
+        <v>18.720775</v>
       </c>
       <c r="O4">
-        <v>0.1705873737041981</v>
+        <v>0.5762769469889637</v>
       </c>
       <c r="P4">
-        <v>0.1705873737041981</v>
+        <v>0.5762769469889637</v>
       </c>
       <c r="Q4">
-        <v>1.20008278236</v>
+        <v>0.3643832446861111</v>
       </c>
       <c r="R4">
-        <v>10.80074504124</v>
+        <v>3.279449202175</v>
       </c>
       <c r="S4">
-        <v>0.1705873737041981</v>
+        <v>0.5762769469889637</v>
       </c>
       <c r="T4">
-        <v>0.1705873737041981</v>
+        <v>0.5762769469889637</v>
       </c>
     </row>
   </sheetData>
